--- a/biology/Botanique/Pin_brutia/Pin_brutia.xlsx
+++ b/biology/Botanique/Pin_brutia/Pin_brutia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus brutia
 Le Pin de Calabre (Pinus brutia Ten.) ou Pin de Turquie est une espèce d'arbres du genre Pinus et de la famille des Pinaceae, endémique d'Asie Mineure, d'où elle s'est répandue sporadiquement vers certaines régions de la Méditerranée orientale et de la Mer Noire.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pin de Calabre est un arbre caractéristique des pinèdes méditerranéennes et égéennes de Turquie.
 </t>
@@ -570,7 +586,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pin de Calabre est naturellement présent sur les côtes méditerranéennes et égéennes de la Turquie, sur l'île de Chypre, sur quelques îles grecques, la Crète notamment et par endroits sur les bords de la Mer noire.
 </t>
@@ -601,7 +619,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Certains auteurs ont traité le pin de Turquie comme une sous-espèce du pin d'Alep [Pinus halepensis subsp. brutia (Ten.)] , mais il est généralement considéré comme une espèce distincte. C'est une espèce modérément variable, et les sous-espèces et variétés suivantes sont identifiées :  
 Pinus brutia var. brutia (forme typique; la courante) ;
